--- a/stats.xlsx
+++ b/stats.xlsx
@@ -466,12 +466,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>31</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -481,7 +481,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>76</t>
         </is>
       </c>
     </row>
@@ -498,22 +498,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>5760</t>
+          <t>7164</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4988</t>
+          <t>5908</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>169</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>10884</t>
+          <t>13241</t>
         </is>
       </c>
     </row>
@@ -535,7 +535,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>60</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -545,7 +545,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>182</t>
         </is>
       </c>
     </row>
@@ -562,22 +562,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2279</t>
+          <t>2108</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4033</t>
+          <t>5088</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6321</t>
+          <t>7206</t>
         </is>
       </c>
     </row>
@@ -594,22 +594,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1975</t>
+          <t>2034</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>6441</t>
+          <t>7118</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>60</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>8473</t>
+          <t>9212</t>
         </is>
       </c>
     </row>
@@ -626,12 +626,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>87</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>336</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -641,7 +641,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>429</t>
         </is>
       </c>
     </row>
@@ -658,22 +658,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>685</t>
+          <t>558</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1755</t>
+          <t>2091</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2452</t>
+          <t>2662</t>
         </is>
       </c>
     </row>
@@ -690,12 +690,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>118</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>60</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -705,7 +705,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>178</t>
         </is>
       </c>
     </row>
@@ -722,22 +722,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>26586</t>
+          <t>27847</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>44765</t>
+          <t>52607</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2429</t>
+          <t>2623</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>73780</t>
+          <t>83077</t>
         </is>
       </c>
     </row>
@@ -754,22 +754,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>658</t>
+          <t>717</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>478</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>995</t>
+          <t>1198</t>
         </is>
       </c>
     </row>
@@ -786,22 +786,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>6269</t>
+          <t>6712</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>21498</t>
+          <t>22800</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1753</t>
+          <t>1808</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>29520</t>
+          <t>31320</t>
         </is>
       </c>
     </row>
@@ -818,22 +818,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>4885</t>
+          <t>4689</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>7380</t>
+          <t>8917</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>223</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>12463</t>
+          <t>13829</t>
         </is>
       </c>
     </row>
@@ -850,12 +850,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>378</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>477</t>
+          <t>529</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -865,7 +865,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>839</t>
+          <t>916</t>
         </is>
       </c>
     </row>
@@ -882,22 +882,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2492</t>
+          <t>2683</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>3967</t>
+          <t>4316</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>94</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>6549</t>
+          <t>7093</t>
         </is>
       </c>
     </row>
@@ -914,12 +914,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>645</t>
+          <t>559</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1605</t>
+          <t>1793</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -929,7 +929,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2262</t>
+          <t>2364</t>
         </is>
       </c>
     </row>
@@ -946,22 +946,22 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>3720</t>
+          <t>5476</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>6670</t>
+          <t>7507</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>207</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>10560</t>
+          <t>13190</t>
         </is>
       </c>
     </row>
@@ -978,12 +978,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1761</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1943</t>
+          <t>2152</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>3726</t>
+          <t>4189</t>
         </is>
       </c>
     </row>
@@ -1010,12 +1010,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>582</t>
+          <t>376</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>586</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1025,7 +1025,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>941</t>
+          <t>963</t>
         </is>
       </c>
     </row>
@@ -1042,22 +1042,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2435</t>
+          <t>2545</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>9619</t>
+          <t>10084</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>542</t>
+          <t>557</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>12596</t>
+          <t>13186</t>
         </is>
       </c>
     </row>
@@ -1074,22 +1074,22 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>63357</t>
+          <t>70622</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>77453</t>
+          <t>86575</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>6931</t>
+          <t>7429</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>147741</t>
+          <t>164626</t>
         </is>
       </c>
     </row>
@@ -1106,12 +1106,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>702</t>
+          <t>730</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>455</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>1056</t>
+          <t>1185</t>
         </is>
       </c>
     </row>
@@ -1138,7 +1138,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1153,7 +1153,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>47</t>
         </is>
       </c>
     </row>
@@ -1170,12 +1170,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>93</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>55</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1185,7 +1185,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>148</t>
         </is>
       </c>
     </row>
@@ -1202,12 +1202,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>251</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>164</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1217,7 +1217,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>415</t>
         </is>
       </c>
     </row>
@@ -1234,22 +1234,22 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>1654</t>
+          <t>1850</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>4291</t>
+          <t>4743</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>21</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>5962</t>
+          <t>6614</t>
         </is>
       </c>
     </row>
@@ -1266,22 +1266,22 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>388</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>221</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>502</t>
+          <t>619</t>
         </is>
       </c>
     </row>
@@ -1298,22 +1298,22 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1457</t>
+          <t>1557</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>3192</t>
+          <t>3526</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>133</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>4769</t>
+          <t>5216</t>
         </is>
       </c>
     </row>
@@ -1330,22 +1330,22 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>3077</t>
+          <t>3261</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>12840</t>
+          <t>13611</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>379</t>
+          <t>399</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>16296</t>
+          <t>17271</t>
         </is>
       </c>
     </row>
@@ -1362,12 +1362,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>49</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1377,7 +1377,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>88</t>
         </is>
       </c>
     </row>
@@ -1394,22 +1394,22 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>30067</t>
+          <t>35659</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>39999</t>
+          <t>45537</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>911</t>
+          <t>1079</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>70977</t>
+          <t>82275</t>
         </is>
       </c>
     </row>
@@ -1426,22 +1426,22 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>6446</t>
+          <t>9000</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>4688</t>
+          <t>5172</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>247</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>11364</t>
+          <t>14419</t>
         </is>
       </c>
     </row>
@@ -1458,12 +1458,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>266</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1019</t>
+          <t>1079</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1473,7 +1473,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>1290</t>
+          <t>1346</t>
         </is>
       </c>
     </row>
@@ -1490,22 +1490,22 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>897</t>
+          <t>767</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1758</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>38</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2691</t>
+          <t>2823</t>
         </is>
       </c>
     </row>
@@ -1522,22 +1522,22 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>6463</t>
+          <t>6679</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>13119</t>
+          <t>14808</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>611</t>
+          <t>660</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>20193</t>
+          <t>22147</t>
         </is>
       </c>
     </row>
@@ -1554,22 +1554,22 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>4852</t>
+          <t>5451</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>10190</t>
+          <t>11193</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>606</t>
+          <t>639</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>15648</t>
+          <t>17283</t>
         </is>
       </c>
     </row>
@@ -1582,14 +1582,14 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>8123</t>
+          <t>7285</t>
         </is>
       </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>8123</t>
+          <t>7285</t>
         </is>
       </c>
     </row>
@@ -1606,22 +1606,22 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>189463</t>
+          <t>210120</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>285637</t>
+          <t>321723</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>15301</t>
+          <t>16475</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>490401</t>
+          <t>548318</t>
         </is>
       </c>
     </row>

--- a/stats.xlsx
+++ b/stats.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,438 +456,438 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Andaman and Nicobar Islands</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>545423</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>1059909</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>35800</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>1641555</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Andhra Pradesh</t>
+          <t>Maharashtra</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>7164</t>
+          <t>148150</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5908</t>
+          <t>248615</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>14729</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>13241</t>
+          <t>411798</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Arunachal Pradesh</t>
+          <t>Tamil Nadu</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>57959</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>178178</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3841</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>239978</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Assam</t>
+          <t>Delhi</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2108</t>
+          <t>10743</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5088</t>
+          <t>119724</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>3936</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7206</t>
+          <t>134403</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Bihar</t>
+          <t>Karnataka</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2034</t>
+          <t>69699</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>7118</t>
+          <t>46694</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>2230</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>9212</t>
+          <t>118632</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Chandigarh</t>
+          <t>Andhra Pradesh</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>69252</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>336</t>
+          <t>60024</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1281</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>429</t>
+          <t>130557</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Chhattisgarh</t>
+          <t>Uttar Pradesh</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>558</t>
+          <t>32649</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2091</t>
+          <t>46803</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>1587</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2662</t>
+          <t>81039</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Dadra and Nagar Haveli and Daman and Diu</t>
+          <t>Gujarat</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>13695</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>44176</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2414</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>60285</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Delhi</t>
+          <t>West Bengal</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>27847</t>
+          <t>19900</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>52607</t>
+          <t>46256</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2623</t>
+          <t>1536</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>83077</t>
+          <t>67692</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Goa</t>
+          <t>Telangana</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>717</t>
+          <t>16796</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>45388</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>519</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1198</t>
+          <t>62703</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Gujarat</t>
+          <t>Rajasthan</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>6712</t>
+          <t>11038</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>22800</t>
+          <t>29231</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1808</t>
+          <t>667</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>31320</t>
+          <t>40936</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Haryana</t>
+          <t>Bihar</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>4689</t>
+          <t>16042</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>8917</t>
+          <t>31673</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>285</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>13829</t>
+          <t>48001</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Himachal Pradesh</t>
+          <t>Haryana</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>6497</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>529</t>
+          <t>27340</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>417</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>916</t>
+          <t>34254</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Jammu and Kashmir</t>
+          <t>Assam</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2683</t>
+          <t>9230</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>4316</t>
+          <t>29081</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -897,731 +897,711 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>7093</t>
+          <t>38408</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Jharkhand</t>
+          <t>Madhya Pradesh</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>559</t>
+          <t>8454</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1793</t>
+          <t>21657</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>857</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2364</t>
+          <t>30968</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>15</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Karnataka</t>
+          <t>Odisha</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>5476</t>
+          <t>10427</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>7507</t>
+          <t>19746</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>205</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>13190</t>
+          <t>30378</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Kerala</t>
+          <t>Jammu and Kashmir</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>7662</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2152</t>
+          <t>11842</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>365</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>4189</t>
+          <t>19869</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>17</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Ladakh</t>
+          <t>Kerala</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>10056</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>586</t>
+          <t>12159</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>71</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>963</t>
+          <t>22304</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Madhya Pradesh</t>
+          <t>Punjab</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2545</t>
+          <t>4577</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>10084</t>
+          <t>10509</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>557</t>
+          <t>370</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>13186</t>
+          <t>15456</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Maharashtra</t>
+          <t>Jharkhand</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>70622</t>
+          <t>6120</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>86575</t>
+          <t>4176</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>7429</t>
+          <t>103</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>164626</t>
+          <t>10399</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Manipur</t>
+          <t>Chhattisgarh</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>730</t>
+          <t>2884</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>5921</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>1185</t>
+          <t>8856</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Meghalaya</t>
+          <t>Uttarakhand</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2955</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>3996</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>76</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>7065</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Mizoram</t>
+          <t>Goa</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>1657</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>4005</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>42</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>5704</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Nagaland</t>
+          <t>Tripura</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>1721</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>2962</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>21</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>415</t>
+          <t>4722</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Odisha</t>
+          <t>Puducherry</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>1850</t>
+          <t>1292</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>4743</t>
+          <t>1958</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>6614</t>
+          <t>3298</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Puducherry</t>
+          <t>Manipur</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>388</t>
+          <t>829</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>1672</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>619</t>
+          <t>2505</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>26</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Punjab</t>
+          <t>Himachal Pradesh</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1557</t>
+          <t>1089</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>3526</t>
+          <t>1387</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>5216</t>
+          <t>2506</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>27</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Rajasthan</t>
+          <t>Ladakh</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>3261</t>
+          <t>278</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>13611</t>
+          <t>1094</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>399</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>17271</t>
+          <t>1378</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>28</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Sikkim</t>
+          <t>Nagaland</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>935</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>625</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>1566</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>29</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Tamil Nadu</t>
+          <t>Arunachal Pradesh</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>35659</t>
+          <t>654</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>45537</t>
+          <t>827</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1079</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>82275</t>
+          <t>1484</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Telangana</t>
+          <t>Chandigarh</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>9000</t>
+          <t>355</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>5172</t>
+          <t>647</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>14</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>14419</t>
+          <t>1016</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>31</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Tripura</t>
+          <t>Dadra and Nagar Haveli and Daman and Diu</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>406</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1079</t>
+          <t>684</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>1346</t>
+          <t>1103</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>32</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Uttarakhand</t>
+          <t>Meghalaya</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>767</t>
+          <t>588</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>210</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2823</t>
+          <t>803</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Uttar Pradesh</t>
+          <t>Sikkim</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>6679</t>
+          <t>395</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>14808</t>
+          <t>214</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>660</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>22147</t>
+          <t>610</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Mizoram</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>409</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
           <t>35</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>West Bengal</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>5451</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>11193</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>639</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>17283</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr"/>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Cases being reassigned to states</t>
+          <t>Andaman and Nicobar Islands</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>7285</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
+          <t>265</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>7285</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Total Cases</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>210120</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>321723</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>16475</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>548318</t>
+          <t>470</t>
         </is>
       </c>
     </row>
